--- a/data/hotels_by_city/Houston/Houston_shard_615.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_615.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d244316-Reviews-Studio_6_Houston_West-Houston_Texas.html</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Studio-6-Houston-West.h1029962.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531688017038&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=ccba535e-4ccd-47e6-afe0-97f7a25b4b9b&amp;mctc=9&amp;exp_dp=53.99&amp;exp_ts=1531688017560&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,114 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r337968008-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>244316</t>
+  </si>
+  <si>
+    <t>337968008</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Roaches and poor housekeeping</t>
+  </si>
+  <si>
+    <t>Room 213 infested with roaches.Mgnt. UnresponsiveClient had to purchase bug sprayAfter 5 days mgr. Offered a new room.Client had solved roach problem and didn't want to chance next room having bed bugs.Mgr. refused to knock one day off bill. Garbage stacking up for 2 days outside room.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r326648367-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326648367</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Roaches!!!</t>
+  </si>
+  <si>
+    <t>I am currently staying here while my house gets some work done to it, however the roaches are taking over and when I called the front desk to report it the lady at the front desk stated that they just sprayed and that's probably why they are out. I hate roaches I'm about to pack up and let them have it.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r247406452-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247406452</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>The hotel room is disgusting. First thing I saw when I walked in was a family of spiders. A dirty floor. It was sticky everywhere. The water in the shower is leaking the shower has black stuff I'm guessing mold. The keys stop working randomly and the front desk lady I'm guessing the owner or manager she seemed high up well she is rude as hell. Most disgusting place ever. Don't recommend to anyone!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Studio 6 Houston West, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>The hotel room is disgusting. First thing I saw when I walked in was a family of spiders. A dirty floor. It was sticky everywhere. The water in the shower is leaking the shower has black stuff I'm guessing mold. The keys stop working randomly and the front desk lady I'm guessing the owner or manager she seemed high up well she is rude as hell. Most disgusting place ever. Don't recommend to anyone!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r58898550-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>58898550</t>
+  </si>
+  <si>
+    <t>03/18/2010</t>
+  </si>
+  <si>
+    <t>Great Price &amp; Great Room! Magnificent Deal</t>
+  </si>
+  <si>
+    <t>This is probably the best bang for your buck. You get a very nice little room for just $50. You can't beat that in this area. It's very clean and comfortable hotel. I would reccomend it to my friends. A rare find for such a reasonable price.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r31471091-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>31471091</t>
+  </si>
+  <si>
+    <t>06/03/2009</t>
+  </si>
+  <si>
+    <t>Great price</t>
+  </si>
+  <si>
+    <t>Saw the hotel from the highway as we were traveling on I-10.  Have stayed at Studio 6 before in San Antonio. We came back around and were presently surprised. Nice clean room. friedly staff. We stayed 2 nights and will continue to stay with Studio 6 in our travels</t>
+  </si>
+  <si>
+    <t>May 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +649,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +681,394 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_615.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r497483212-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>244316</t>
+  </si>
+  <si>
+    <t>497483212</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Roaches and Unprofessional Staff poor yard and housekeeping</t>
+  </si>
+  <si>
+    <t>Management very unconcerned about the company especially staff; only two housekeepers for a total of four buildings roaches in the room and rats running around outside around the trash; bldg. 200 is very infested with roaches I agree with one other person that management is unresponsive . I have witnessed drugs being sold on property as well prostitution at night real bad in building 4 and yes the management is aware but still allows it to take place.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r383488755-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383488755</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>affordable, convenient</t>
+  </si>
+  <si>
+    <t>fairly ok, i like the open sprawling layout, affordable too. though 1 or 2 roaches made an appearance in my room, wasnt too pleased. wifi isnt free. wifi was poor and unreliable in my room. also no business center, needed to print a few pages, and the office couldnt help me...even for a small fee!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r337968008-Studio_6_Houston_West-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>244316</t>
-  </si>
-  <si>
     <t>337968008</t>
   </si>
   <si>
@@ -177,9 +219,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r326648367-Studio_6_Houston_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -220,6 +259,51 @@
   </si>
   <si>
     <t>The hotel room is disgusting. First thing I saw when I walked in was a family of spiders. A dirty floor. It was sticky everywhere. The water in the shower is leaking the shower has black stuff I'm guessing mold. The keys stop working randomly and the front desk lady I'm guessing the owner or manager she seemed high up well she is rude as hell. Most disgusting place ever. Don't recommend to anyone!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r147754887-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147754887</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent price! Very friendly staff! Hard working Managment!</t>
+  </si>
+  <si>
+    <t>I stayed at this Studio 6 for over a YEAR. Here is why it is a great choice for short or long term stays. 
+1. The general manager is Brian. I saw him there virtually everyday. He was constantly walking the grounds, fixing door locks, helping residents, what have you. He's an extremely nice individual who cares about his job, his customers, and his employees. Any time you have a well functioning establishment, look to the top and you'll find someone who actually gives a dang. Brian is fantastic. 
+2. The staff are fantastic! Never once did I ever have an issue with the staff. Not once! Anytime I needed anything, all I had to do was ask and they'd do whatever they could. They did a great job cleaning my room each week. Bebe is the best! &lt;3  And Steve is freaking hilarious! Many times I'd go in to pay my bill and end up chatting for about an hour. Everyone is very friendly here. There is also an overnight guy on duty in case of emergencies. Once I lost my key and couldn't get into my room. I had worked late (it was about 2AM).  Within 5 minutes of using the phone outside of the main office to call for assistance, I was in my room getting ready for bed. 
+3. Location &amp; Price! It is located on Highway 6 and I-10. You can get anywhere fast! But,...I stayed at this Studio 6 for over a YEAR. Here is why it is a great choice for short or long term stays. 1. The general manager is Brian. I saw him there virtually everyday. He was constantly walking the grounds, fixing door locks, helping residents, what have you. He's an extremely nice individual who cares about his job, his customers, and his employees. Any time you have a well functioning establishment, look to the top and you'll find someone who actually gives a dang. Brian is fantastic. 2. The staff are fantastic! Never once did I ever have an issue with the staff. Not once! Anytime I needed anything, all I had to do was ask and they'd do whatever they could. They did a great job cleaning my room each week. Bebe is the best! &lt;3  And Steve is freaking hilarious! Many times I'd go in to pay my bill and end up chatting for about an hour. Everyone is very friendly here. There is also an overnight guy on duty in case of emergencies. Once I lost my key and couldn't get into my room. I had worked late (it was about 2AM).  Within 5 minutes of using the phone outside of the main office to call for assistance, I was in my room getting ready for bed. 3. Location &amp; Price! It is located on Highway 6 and I-10. You can get anywhere fast! But, this Studio 6 is right next to Bear Creek Reservoir which means a whole lot of quiet and not a lot of rift-raft. There are some nice apartments across the street, too. And the price is the best you'll find in the Houston area! Believe me, I looked! 4. Speaking of quiet, . . . When it wasn't too hot, I'd open my window and leave it open all night. I did this quite often and never had a problem with noisy or curious neighbors. ( I was on the 2nd floor)5. New A/C units. They just installed new A/C units in all the rooms. I'm sure that I'm leaving something out as I could go on and on. Initially, I was planning to only stay for a few months, but that turned into a year when I realized I could save money by staying longer. And after a couple weeks I realized that I wasn't sacrificing comfort (except for space area) so it was easy to decide to stay. Thanks to Brian, Bebe &lt;3, Steve, and the rest of the staff for making Studio 6 my home in 2012!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at this Studio 6 for over a YEAR. Here is why it is a great choice for short or long term stays. 
+1. The general manager is Brian. I saw him there virtually everyday. He was constantly walking the grounds, fixing door locks, helping residents, what have you. He's an extremely nice individual who cares about his job, his customers, and his employees. Any time you have a well functioning establishment, look to the top and you'll find someone who actually gives a dang. Brian is fantastic. 
+2. The staff are fantastic! Never once did I ever have an issue with the staff. Not once! Anytime I needed anything, all I had to do was ask and they'd do whatever they could. They did a great job cleaning my room each week. Bebe is the best! &lt;3  And Steve is freaking hilarious! Many times I'd go in to pay my bill and end up chatting for about an hour. Everyone is very friendly here. There is also an overnight guy on duty in case of emergencies. Once I lost my key and couldn't get into my room. I had worked late (it was about 2AM).  Within 5 minutes of using the phone outside of the main office to call for assistance, I was in my room getting ready for bed. 
+3. Location &amp; Price! It is located on Highway 6 and I-10. You can get anywhere fast! But,...I stayed at this Studio 6 for over a YEAR. Here is why it is a great choice for short or long term stays. 1. The general manager is Brian. I saw him there virtually everyday. He was constantly walking the grounds, fixing door locks, helping residents, what have you. He's an extremely nice individual who cares about his job, his customers, and his employees. Any time you have a well functioning establishment, look to the top and you'll find someone who actually gives a dang. Brian is fantastic. 2. The staff are fantastic! Never once did I ever have an issue with the staff. Not once! Anytime I needed anything, all I had to do was ask and they'd do whatever they could. They did a great job cleaning my room each week. Bebe is the best! &lt;3  And Steve is freaking hilarious! Many times I'd go in to pay my bill and end up chatting for about an hour. Everyone is very friendly here. There is also an overnight guy on duty in case of emergencies. Once I lost my key and couldn't get into my room. I had worked late (it was about 2AM).  Within 5 minutes of using the phone outside of the main office to call for assistance, I was in my room getting ready for bed. 3. Location &amp; Price! It is located on Highway 6 and I-10. You can get anywhere fast! But, this Studio 6 is right next to Bear Creek Reservoir which means a whole lot of quiet and not a lot of rift-raft. There are some nice apartments across the street, too. And the price is the best you'll find in the Houston area! Believe me, I looked! 4. Speaking of quiet, . . . When it wasn't too hot, I'd open my window and leave it open all night. I did this quite often and never had a problem with noisy or curious neighbors. ( I was on the 2nd floor)5. New A/C units. They just installed new A/C units in all the rooms. I'm sure that I'm leaving something out as I could go on and on. Initially, I was planning to only stay for a few months, but that turned into a year when I realized I could save money by staying longer. And after a couple weeks I realized that I wasn't sacrificing comfort (except for space area) so it was easy to decide to stay. Thanks to Brian, Bebe &lt;3, Steve, and the rest of the staff for making Studio 6 my home in 2012!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r134660324-Studio_6_Houston_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134660324</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I came from Jackson,Ms to visit my guy because he have a new job in the Houston area and we decided to stay at the Studio 6 for a week! NEVER again! The floor is a mess and smells very bad! I've been spraying air fresher but it's not helping at all! I know for a fact something is biting me! We are about to leave and go get another room because I can't take this! We have a full size bed with a queen size blanket on it! I WILL NEVER STAY HERE AGAIN! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244316-r58898550-Studio_6_Houston_West-Houston_Texas.html</t>
@@ -799,11 +883,17 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -847,20 +937,26 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -883,7 +979,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -892,49 +988,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>65</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -950,7 +1036,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -959,49 +1045,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1017,7 +1093,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1026,49 +1102,313 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31361</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
